--- a/template Excel/Sales/KPISales.xlsx
+++ b/template Excel/Sales/KPISales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{312E285A-8791-4BA9-8B4F-E8AB2B086963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E802C9D-0CC3-475E-B7AC-5126B2BE3DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F3BC51B-26E6-4DA8-8EDF-82AA4F5E2ACA}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>EmployeePerformanceSalesID</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>DealClosureRate</t>
+  </si>
+  <si>
+    <t>KPIId</t>
   </si>
 </sst>
 </file>
@@ -450,36 +450,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E41DD-D5BD-4C08-9BC6-C589A9655D04}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/template Excel/Sales/KPISales.xlsx
+++ b/template Excel/Sales/KPISales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E802C9D-0CC3-475E-B7AC-5126B2BE3DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9BB41-EC6F-4AD0-800C-FD7AFB0138D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F3BC51B-26E6-4DA8-8EDF-82AA4F5E2ACA}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>DealClosureRate</t>
   </si>
   <si>
-    <t>KPIId</t>
+    <t>KPISaleID</t>
   </si>
 </sst>
 </file>
